--- a/WebApplication1/Uploads/CHITIETMONHOC.xlsx
+++ b/WebApplication1/Uploads/CHITIETMONHOC.xlsx
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="P11" sqref="P11:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,7 +362,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -383,7 +384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>34</v>
       </c>
@@ -394,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -405,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>34</v>
       </c>
@@ -416,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -427,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>34</v>
       </c>
@@ -438,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
@@ -449,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
@@ -460,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -471,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
@@ -482,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -492,8 +493,10 @@
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -504,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>34</v>
       </c>
@@ -515,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>34</v>
       </c>
@@ -526,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
